--- a/Old Order Summary Acc/Northern Cor/Northern.xlsx
+++ b/Old Order Summary Acc/Northern Cor/Northern.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="189">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>11.09.21</t>
+  </si>
+  <si>
+    <t>22-09-21</t>
+  </si>
+  <si>
+    <t>22/09/21</t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1500" topLeftCell="A202" activePane="bottomLeft"/>
-      <selection activeCell="A3" sqref="A3:Y3"/>
-      <selection pane="bottomLeft" activeCell="Q124" sqref="Q124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9274,7 +9279,9 @@
       <c r="B196" s="8">
         <v>482665</v>
       </c>
-      <c r="C196" s="8"/>
+      <c r="C196" s="8">
+        <v>28400</v>
+      </c>
       <c r="D196" s="8">
         <v>26600</v>
       </c>
@@ -9347,10 +9354,18 @@
       <c r="R197" s="9">
         <v>1411.2</v>
       </c>
-      <c r="S197" s="12"/>
-      <c r="T197" s="12"/>
-      <c r="U197" s="12"/>
-      <c r="V197" s="11"/>
+      <c r="S197" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="T197" s="12">
+        <v>1745</v>
+      </c>
+      <c r="U197" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V197" s="11">
+        <v>1889</v>
+      </c>
       <c r="W197" s="11"/>
       <c r="X197" s="15"/>
       <c r="Y197" s="4"/>
@@ -9463,7 +9478,7 @@
       <c r="U201" s="12"/>
       <c r="V201" s="11">
         <f>SUM(V196:V200)</f>
-        <v>0</v>
+        <v>1889</v>
       </c>
       <c r="W201" s="11">
         <f>SUM(W196:W200)</f>
@@ -9471,7 +9486,7 @@
       </c>
       <c r="X201" s="15">
         <f>V201-R201+W201</f>
-        <v>-1988.1</v>
+        <v>-99.099999999999909</v>
       </c>
       <c r="Y201" s="4"/>
     </row>
@@ -9541,10 +9556,18 @@
       <c r="P203" s="4"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="9"/>
-      <c r="S203" s="12"/>
-      <c r="T203" s="12"/>
-      <c r="U203" s="12"/>
-      <c r="V203" s="11"/>
+      <c r="S203" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T203" s="12">
+        <v>1745</v>
+      </c>
+      <c r="U203" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="V203" s="11">
+        <v>2165</v>
+      </c>
       <c r="W203" s="11"/>
       <c r="X203" s="15"/>
       <c r="Y203" s="4"/>
@@ -9630,7 +9653,7 @@
       <c r="U206" s="12"/>
       <c r="V206" s="11">
         <f>SUM(V202:V205)</f>
-        <v>0</v>
+        <v>2165</v>
       </c>
       <c r="W206" s="11">
         <f>SUM(W202:W205)</f>
@@ -9638,7 +9661,7 @@
       </c>
       <c r="X206" s="15">
         <f>V206-R206+W206</f>
-        <v>-3791.34</v>
+        <v>-1626.3400000000001</v>
       </c>
       <c r="Y206" s="4"/>
     </row>
@@ -9945,7 +9968,7 @@
       <c r="U217" s="12"/>
       <c r="V217" s="11">
         <f>+V206+V201+V195+V190+V184+V178+V173+V160+V149+V136+V123+V130+V117+V112+V100+V91+V85+V65+V73+V53+V43+V32+V25+V14</f>
-        <v>40973.5</v>
+        <v>45027.5</v>
       </c>
       <c r="W217" s="11">
         <f>+W206+W201+W195+W190+W184+W178+W173+W160+W149+W136+W123+W130+W117+W112+W100+W91+W85+W65+W73+W53+W43+W32+W25+W14</f>
@@ -9953,14 +9976,14 @@
       </c>
       <c r="X217" s="18">
         <f>SUM(X7:X216)</f>
-        <v>-13657.758</v>
+        <v>-9603.7579999999998</v>
       </c>
       <c r="Y217" s="4"/>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="V218" s="17">
         <f>R217-V217</f>
-        <v>13702.758000000009</v>
+        <v>9648.7580000000089</v>
       </c>
       <c r="W218" s="17"/>
     </row>
